--- a/nhanvien.xlsx
+++ b/nhanvien.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>Thong tin nhan vien</t>
   </si>
@@ -32,28 +32,46 @@
     <t>Địa chỉ</t>
   </si>
   <si>
-    <t>asd ád</t>
+    <t>Võ Công Anh</t>
+  </si>
+  <si>
+    <t>NV0001</t>
+  </si>
+  <si>
+    <t>Quận 10</t>
   </si>
   <si>
     <t>Nhân Viên Bán Hàng</t>
   </si>
   <si>
-    <t>asd asd a</t>
-  </si>
-  <si>
-    <t>asda sd</t>
-  </si>
-  <si>
-    <t>ádasd</t>
-  </si>
-  <si>
-    <t>ấdasd</t>
+    <t>Trần Đức Thanh</t>
+  </si>
+  <si>
+    <t>NV0002</t>
+  </si>
+  <si>
+    <t>Quận 4</t>
   </si>
   <si>
     <t>Quản Lý Kho</t>
   </si>
   <si>
-    <t>ádasdasdasdasd</t>
+    <t>Nguyễn Hữu Quốc Bảo</t>
+  </si>
+  <si>
+    <t>NV0003</t>
+  </si>
+  <si>
+    <t>Bình Tân</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Mạnh</t>
+  </si>
+  <si>
+    <t>NV0004</t>
+  </si>
+  <si>
+    <t>Quận 7</t>
   </si>
 </sst>
 </file>
@@ -98,7 +116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -131,50 +149,67 @@
         <v>6</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>13</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
